--- a/Data_science_outputs/1500pop/avg_analysis/avg_analysis_2.xlsx
+++ b/Data_science_outputs/1500pop/avg_analysis/avg_analysis_2.xlsx
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26059.14453919906</v>
+        <v>15770.80323680944</v>
       </c>
       <c r="C3" t="n">
         <v>11441.95511567465</v>
       </c>
       <c r="D3" t="n">
-        <v>11358.84070328769</v>
+        <v>1052.413686175801</v>
       </c>
       <c r="E3" t="n">
         <v>3295.34257762366</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13293.7686102936</v>
+        <v>6632.685490293635</v>
       </c>
       <c r="C4" t="n">
         <v>5912.601574216394</v>
       </c>
       <c r="D4" t="n">
-        <v>10820.07016942902</v>
+        <v>798.7814462204649</v>
       </c>
       <c r="E4" t="n">
         <v>980.0390745572763</v>
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4796.857915068488</v>
+        <v>4768.756578082192</v>
       </c>
       <c r="C5" t="n">
         <v>2592.594285714286</v>
       </c>
       <c r="D5" t="n">
-        <v>23.28814246575348</v>
+        <v>37.26064657534252</v>
       </c>
       <c r="E5" t="n">
         <v>1313.510720547941</v>
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13502.50519315068</v>
+        <v>10357.34987534247</v>
       </c>
       <c r="C6" t="n">
         <v>6142.156892857145</v>
       </c>
       <c r="D6" t="n">
-        <v>246.8506417808213</v>
+        <v>265.4806212328762</v>
       </c>
       <c r="E6" t="n">
         <v>2443.880301369865</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27387.82492602744</v>
+        <v>13674.28660273972</v>
       </c>
       <c r="C7" t="n">
         <v>9603.749142857147</v>
       </c>
       <c r="D7" t="n">
-        <v>11529.06864657535</v>
+        <v>959.2604273972595</v>
       </c>
       <c r="E7" t="n">
         <v>3415.978739726028</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34733.23465205479</v>
+        <v>21235.57258630153</v>
       </c>
       <c r="C8" t="n">
         <v>16271.4758928573</v>
       </c>
       <c r="D8" t="n">
-        <v>23040</v>
+        <v>1920</v>
       </c>
       <c r="E8" t="n">
         <v>4236.783356849314</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48055.96304109608</v>
+        <v>29926.40090684943</v>
       </c>
       <c r="C9" t="n">
         <v>25978.14914285724</v>
       </c>
       <c r="D9" t="n">
-        <v>23049.3151561644</v>
+        <v>1920.000060273973</v>
       </c>
       <c r="E9" t="n">
         <v>5356.012860273982</v>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>37525168.13644664</v>
+        <v>22709956.66100555</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>16476415.3665715</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4376567788375395</v>
+        <v>0.7243161176691555</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>16356730.61273425</v>
+        <v>1515475.708093151</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4358869373551889</v>
+        <v>0.06673177455663397</v>
       </c>
     </row>
     <row r="13">
@@ -696,7 +696,7 @@
         <v>4745293.311778083</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1264562838072716</v>
+        <v>0.2089521077742105</v>
       </c>
     </row>
   </sheetData>
